--- a/teaching/traditional_assets/database/data/malaysia/malaysia_bank_money_center.xlsx
+++ b/teaching/traditional_assets/database/data/malaysia/malaysia_bank_money_center.xlsx
@@ -591,13 +591,13 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.04295</v>
+        <v>0.0191</v>
       </c>
       <c r="E2">
-        <v>0.0425</v>
+        <v>0.010045</v>
       </c>
       <c r="F2">
-        <v>0.0416</v>
+        <v>0.01</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -606,91 +606,91 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.002096419693861547</v>
+        <v>0.0001593531163830505</v>
       </c>
       <c r="J2">
-        <v>0.0016292643179647</v>
+        <v>0.0001242555790339557</v>
       </c>
       <c r="K2">
-        <v>6839.4</v>
+        <v>5718.8</v>
       </c>
       <c r="L2">
-        <v>0.374930105581686</v>
+        <v>0.3382044200528703</v>
       </c>
       <c r="M2">
-        <v>3241.08</v>
+        <v>3572.38</v>
       </c>
       <c r="N2">
-        <v>0.04035786996395151</v>
+        <v>0.04427437775213695</v>
       </c>
       <c r="O2">
-        <v>0.4738836740064918</v>
+        <v>0.6246730083234245</v>
       </c>
       <c r="P2">
-        <v>3077.88</v>
+        <v>3360.7</v>
       </c>
       <c r="Q2">
-        <v>0.03832570649433124</v>
+        <v>0.04165091656307746</v>
       </c>
       <c r="R2">
-        <v>0.450021931748399</v>
+        <v>0.5876582499825138</v>
       </c>
       <c r="S2">
-        <v>163.2</v>
+        <v>211.68</v>
       </c>
       <c r="T2">
-        <v>0.05035358584175644</v>
+        <v>0.05925461457067838</v>
       </c>
       <c r="U2">
-        <v>33050.4</v>
+        <v>38291.2</v>
       </c>
       <c r="V2">
-        <v>0.4115429873550123</v>
+        <v>0.4745629113875418</v>
       </c>
       <c r="W2">
-        <v>0.10309902221058</v>
+        <v>0.09018382396013491</v>
       </c>
       <c r="X2">
-        <v>0.0561177223683738</v>
+        <v>0.04889533355656739</v>
       </c>
       <c r="Y2">
-        <v>0.04698129984220616</v>
+        <v>0.04128849040356752</v>
       </c>
       <c r="Z2">
-        <v>0.2436860688936369</v>
+        <v>0.2032738488333537</v>
       </c>
       <c r="AA2">
-        <v>0.001181989871124764</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.04654833119024514</v>
+        <v>0.04034008272715543</v>
       </c>
       <c r="AC2">
-        <v>-0.04517269868913722</v>
+        <v>-0.04017005081066641</v>
       </c>
       <c r="AD2">
-        <v>50811.39999999999</v>
+        <v>56471.1</v>
       </c>
       <c r="AE2">
-        <v>531.4876561425822</v>
+        <v>6.127251745720424</v>
       </c>
       <c r="AF2">
-        <v>51342.88765614258</v>
+        <v>56477.22725174572</v>
       </c>
       <c r="AG2">
-        <v>18292.48765614258</v>
+        <v>18186.02725174572</v>
       </c>
       <c r="AH2">
-        <v>0.3899912379977639</v>
+        <v>0.4117480545687291</v>
       </c>
       <c r="AI2">
-        <v>0.4132274655787675</v>
+        <v>0.4227931455166927</v>
       </c>
       <c r="AJ2">
-        <v>0.1855203288625781</v>
+        <v>0.1839325908942204</v>
       </c>
       <c r="AK2">
-        <v>0.200579728438094</v>
+        <v>0.1908492187089027</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>351.5386744153867</v>
+        <v>14405.89285714286</v>
       </c>
       <c r="AP2">
-        <v>126.5565771145882</v>
+        <v>4639.292666261664</v>
       </c>
     </row>
     <row r="3">
@@ -713,7 +713,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Alliance Bank Malaysia Berhad (KLSE:ABMB)</t>
+          <t>Hong Leong Bank Berhad (KLSE:HLBANK)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -722,13 +722,13 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.0008100000000000001</v>
+        <v>0.0167</v>
       </c>
       <c r="E3">
-        <v>-0.05</v>
+        <v>0.0298</v>
       </c>
       <c r="F3">
-        <v>0.0227</v>
+        <v>0.063</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -737,34 +737,34 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.01549395679765414</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01177018081395933</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>108.2</v>
+        <v>609.9</v>
       </c>
       <c r="L3">
-        <v>0.3225998807394156</v>
+        <v>0.5669269380925823</v>
       </c>
       <c r="M3">
-        <v>61.7</v>
+        <v>246.2</v>
       </c>
       <c r="N3">
-        <v>0.062053706124912</v>
+        <v>0.02655449495766597</v>
       </c>
       <c r="O3">
-        <v>0.5702402957486137</v>
+        <v>0.4036727332349566</v>
       </c>
       <c r="P3">
-        <v>61.7</v>
+        <v>246.2</v>
       </c>
       <c r="Q3">
-        <v>0.062053706124912</v>
+        <v>0.02655449495766597</v>
       </c>
       <c r="R3">
-        <v>0.5702402957486137</v>
+        <v>0.4036727332349566</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -773,67 +773,61 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>400.1</v>
+        <v>1245.8</v>
       </c>
       <c r="V3">
-        <v>0.4023936437694861</v>
+        <v>0.1343687644933398</v>
       </c>
       <c r="W3">
-        <v>0.08063794902369952</v>
+        <v>0.09797747754984017</v>
       </c>
       <c r="X3">
-        <v>0.05324444279488905</v>
+        <v>0.04203627179817809</v>
       </c>
       <c r="Y3">
-        <v>0.02739350622881047</v>
+        <v>0.05594120575166207</v>
       </c>
       <c r="Z3">
-        <v>0.2724245367076102</v>
+        <v>0.1987841608307619</v>
       </c>
       <c r="AA3">
-        <v>0.003206486055207672</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.04596255994911051</v>
+        <v>0.03864475488415939</v>
       </c>
       <c r="AC3">
-        <v>-0.04275607389390284</v>
+        <v>-0.03864475488415939</v>
       </c>
       <c r="AD3">
-        <v>410.5</v>
+        <v>1966</v>
       </c>
       <c r="AE3">
-        <v>17.76663445033401</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>428.266634450334</v>
+        <v>1966</v>
       </c>
       <c r="AG3">
-        <v>28.16663445033396</v>
+        <v>720.2</v>
       </c>
       <c r="AH3">
-        <v>0.3010520731183971</v>
+        <v>0.1749499443826474</v>
       </c>
       <c r="AI3">
-        <v>0.2337870161486067</v>
+        <v>0.2254613011617106</v>
       </c>
       <c r="AJ3">
-        <v>0.02754772967772783</v>
+        <v>0.0720798262557923</v>
       </c>
       <c r="AK3">
-        <v>0.01967264341311274</v>
+        <v>0.09635942789098355</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
         <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>46.91428571428571</v>
-      </c>
-      <c r="AP3">
-        <v>3.219043937181024</v>
       </c>
     </row>
     <row r="4">
@@ -844,7 +838,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>AFFIN Bank Berhad (KLSE:AFFIN)</t>
+          <t>Public Bank Berhad (KLSE:PBBANK)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -853,13 +847,13 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.0857</v>
+        <v>0.0322</v>
       </c>
       <c r="E4">
-        <v>0.00127</v>
+        <v>0.0124</v>
       </c>
       <c r="F4">
-        <v>-0.006999999999999999</v>
+        <v>0.0245</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -868,100 +862,97 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.009315633246543439</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.007101852623928291</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>121.6</v>
+        <v>1234.2</v>
       </c>
       <c r="L4">
-        <v>0.266900790166813</v>
+        <v>0.4870560378847672</v>
       </c>
       <c r="M4">
-        <v>-0</v>
+        <v>373.6</v>
       </c>
       <c r="N4">
-        <v>-0</v>
+        <v>0.01877443541011287</v>
       </c>
       <c r="O4">
-        <v>-0</v>
+        <v>0.302706206449522</v>
       </c>
       <c r="P4">
-        <v>-0</v>
+        <v>373.6</v>
       </c>
       <c r="Q4">
-        <v>-0</v>
+        <v>0.01877443541011287</v>
       </c>
       <c r="R4">
-        <v>-0</v>
+        <v>0.302706206449522</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
       <c r="U4">
-        <v>2453.6</v>
+        <v>4614.3</v>
       </c>
       <c r="V4">
-        <v>2.662615301139446</v>
+        <v>0.2318813632571836</v>
       </c>
       <c r="W4">
-        <v>0.05888905031720664</v>
+        <v>0.1213139891483841</v>
       </c>
       <c r="X4">
-        <v>0.06552437223293614</v>
+        <v>0.04145050034166183</v>
       </c>
       <c r="Y4">
-        <v>-0.006635321915729499</v>
+        <v>0.07986348880672223</v>
       </c>
       <c r="Z4">
-        <v>0.3455103780754016</v>
+        <v>0.2202310079001573</v>
       </c>
       <c r="AA4">
-        <v>0.002453763785129248</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.04675330380772726</v>
+        <v>0.03892622605452452</v>
       </c>
       <c r="AC4">
-        <v>-0.04429954002259802</v>
+        <v>-0.03892622605452452</v>
       </c>
       <c r="AD4">
-        <v>969.3</v>
+        <v>3675.6</v>
       </c>
       <c r="AE4">
-        <v>8.128987464374044</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>977.428987464374</v>
+        <v>3675.6</v>
       </c>
       <c r="AG4">
-        <v>-1476.171012535626</v>
+        <v>-938.7000000000003</v>
       </c>
       <c r="AH4">
-        <v>0.5147264557636395</v>
+        <v>0.1559109225874867</v>
       </c>
       <c r="AI4">
-        <v>0.3029069688110224</v>
+        <v>0.2441302080911802</v>
       </c>
       <c r="AJ4">
-        <v>2.661345156271012</v>
+        <v>-0.0495076658562184</v>
       </c>
       <c r="AK4">
-        <v>-1.90909942134527</v>
+        <v>-0.08990001532332213</v>
       </c>
       <c r="AL4">
         <v>0</v>
       </c>
       <c r="AM4">
         <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>165.1277683134583</v>
-      </c>
-      <c r="AP4">
-        <v>-251.4771741968698</v>
       </c>
     </row>
     <row r="5">
@@ -972,7 +963,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>RHB Bank Berhad (KLSE:RHBBANK)</t>
+          <t>Alliance Bank Malaysia Berhad (KLSE:ABMB)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -981,13 +972,13 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.0697</v>
+        <v>0.0139</v>
       </c>
       <c r="E5">
-        <v>0.04679999999999999</v>
+        <v>-0.0147</v>
       </c>
       <c r="F5">
-        <v>0.04849999999999999</v>
+        <v>-0.006500000000000001</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -996,34 +987,34 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.009903118480135241</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.007357977757787577</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>579.5</v>
+        <v>105.9</v>
       </c>
       <c r="L5">
-        <v>0.3624820166385188</v>
+        <v>0.3195534097767049</v>
       </c>
       <c r="M5">
-        <v>196.3</v>
+        <v>22.3</v>
       </c>
       <c r="N5">
-        <v>0.03468136605360329</v>
+        <v>0.01989295272078501</v>
       </c>
       <c r="O5">
-        <v>0.3387402933563417</v>
+        <v>0.210576015108593</v>
       </c>
       <c r="P5">
-        <v>196.3</v>
+        <v>22.3</v>
       </c>
       <c r="Q5">
-        <v>0.03468136605360329</v>
+        <v>0.01989295272078501</v>
       </c>
       <c r="R5">
-        <v>0.3387402933563417</v>
+        <v>0.210576015108593</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -1032,67 +1023,61 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>2297.7</v>
+        <v>971.8</v>
       </c>
       <c r="V5">
-        <v>0.4059468913976784</v>
+        <v>0.8669045495093666</v>
       </c>
       <c r="W5">
-        <v>0.1027081634823296</v>
+        <v>0.07544884582502139</v>
       </c>
       <c r="X5">
-        <v>0.05417640135117095</v>
+        <v>0.04680696681200056</v>
       </c>
       <c r="Y5">
-        <v>0.04853176213115863</v>
+        <v>0.02864187901302083</v>
       </c>
       <c r="Z5">
-        <v>0.327821493321394</v>
+        <v>0.2343705799151344</v>
       </c>
       <c r="AA5">
-        <v>0.002412103256383525</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.04725148657030666</v>
+        <v>0.03948782062287268</v>
       </c>
       <c r="AC5">
-        <v>-0.04483938331392313</v>
+        <v>-0.03948782062287268</v>
       </c>
       <c r="AD5">
-        <v>2671.2</v>
+        <v>487.3</v>
       </c>
       <c r="AE5">
-        <v>37.33942242903895</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>2708.539422429039</v>
+        <v>487.3</v>
       </c>
       <c r="AG5">
-        <v>410.8394224290391</v>
+        <v>-484.4999999999999</v>
       </c>
       <c r="AH5">
-        <v>0.3236534979831729</v>
+        <v>0.3029907355592862</v>
       </c>
       <c r="AI5">
-        <v>0.3049422322272354</v>
+        <v>0.2399665140099473</v>
       </c>
       <c r="AJ5">
-        <v>0.06767312171015841</v>
+        <v>-0.7611940298507461</v>
       </c>
       <c r="AK5">
-        <v>0.06239550492781024</v>
+        <v>-0.4575502880347529</v>
       </c>
       <c r="AL5">
         <v>0</v>
       </c>
       <c r="AM5">
         <v>0</v>
-      </c>
-      <c r="AN5">
-        <v>114.6437768240343</v>
-      </c>
-      <c r="AP5">
-        <v>17.63259323729782</v>
       </c>
     </row>
     <row r="6">
@@ -1112,10 +1097,10 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.0355</v>
+        <v>0.0184</v>
       </c>
       <c r="E6">
-        <v>0.0267</v>
+        <v>0.0388</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1124,103 +1109,97 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.002711382782561096</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.002243543996705222</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>454.6</v>
+        <v>470.2</v>
       </c>
       <c r="L6">
-        <v>0.3630120578136229</v>
+        <v>0.3904018598472268</v>
       </c>
       <c r="M6">
-        <v>158.4</v>
+        <v>46.7</v>
       </c>
       <c r="N6">
-        <v>0.03376750730137074</v>
+        <v>0.009165668976075052</v>
       </c>
       <c r="O6">
-        <v>0.3484381874175098</v>
+        <v>0.09931943853679286</v>
       </c>
       <c r="P6">
-        <v>114.6</v>
+        <v>35.6</v>
       </c>
       <c r="Q6">
-        <v>0.02443027990364323</v>
+        <v>0.006987105257992974</v>
       </c>
       <c r="R6">
-        <v>0.2520897492300924</v>
+        <v>0.07571246278179498</v>
       </c>
       <c r="S6">
-        <v>43.79999999999998</v>
+        <v>11.1</v>
       </c>
       <c r="T6">
-        <v>0.2765151515151514</v>
+        <v>0.2376873661670236</v>
       </c>
       <c r="U6">
-        <v>3303.8</v>
+        <v>1862.2</v>
       </c>
       <c r="V6">
-        <v>0.7042998145345244</v>
+        <v>0.3654884104335538</v>
       </c>
       <c r="W6">
-        <v>0.1034898809388303</v>
+        <v>0.1011378546385322</v>
       </c>
       <c r="X6">
-        <v>0.05283533827638308</v>
+        <v>0.04714740510482991</v>
       </c>
       <c r="Y6">
-        <v>0.05065454266244726</v>
+        <v>0.05399044953370227</v>
       </c>
       <c r="Z6">
-        <v>0.4652583777203492</v>
+        <v>0.4483156523357528</v>
       </c>
       <c r="AA6">
-        <v>0.0010438276402513</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.04592405200371559</v>
+        <v>0.03953808881647702</v>
       </c>
       <c r="AC6">
-        <v>-0.04488022436346429</v>
+        <v>-0.03953808881647702</v>
       </c>
       <c r="AD6">
-        <v>1916.8</v>
+        <v>2295.8</v>
       </c>
       <c r="AE6">
-        <v>5.222676706993701</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>1922.022676706994</v>
+        <v>2295.8</v>
       </c>
       <c r="AG6">
-        <v>-1381.777323293006</v>
+        <v>433.6000000000001</v>
       </c>
       <c r="AH6">
-        <v>0.2906464767049257</v>
+        <v>0.3106252283213141</v>
       </c>
       <c r="AI6">
-        <v>0.216119750353945</v>
+        <v>0.2295960717250208</v>
       </c>
       <c r="AJ6">
-        <v>-0.4175660615483904</v>
+        <v>0.078427116682041</v>
       </c>
       <c r="AK6">
-        <v>-0.2472084654117667</v>
+        <v>0.05328679750771161</v>
       </c>
       <c r="AL6">
         <v>0</v>
       </c>
       <c r="AM6">
         <v>0</v>
-      </c>
-      <c r="AN6">
-        <v>431.7117117117116</v>
-      </c>
-      <c r="AP6">
-        <v>-311.2111088497762</v>
       </c>
     </row>
     <row r="7">
@@ -1231,7 +1210,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Hong Leong Bank Berhad (KLSE:HLBANK)</t>
+          <t>BIMB Holdings Berhad (KLSE:BIMB)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1240,13 +1219,13 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.0348</v>
+        <v>0.06950000000000001</v>
       </c>
       <c r="E7">
-        <v>0.04679999999999999</v>
+        <v>0.0471</v>
       </c>
       <c r="F7">
-        <v>0.061</v>
+        <v>-0.044</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1255,34 +1234,34 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.002315510920609449</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.001925985719011598</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>631.9</v>
+        <v>163.4</v>
       </c>
       <c r="L7">
-        <v>0.561988616150836</v>
+        <v>0.2285634354455169</v>
       </c>
       <c r="M7">
-        <v>234.5</v>
+        <v>42.8</v>
       </c>
       <c r="N7">
-        <v>0.02712299613685258</v>
+        <v>0.02252275956427932</v>
       </c>
       <c r="O7">
-        <v>0.371103022630163</v>
+        <v>0.2619339045287638</v>
       </c>
       <c r="P7">
-        <v>234.5</v>
+        <v>42.8</v>
       </c>
       <c r="Q7">
-        <v>0.02712299613685258</v>
+        <v>0.02252275956427932</v>
       </c>
       <c r="R7">
-        <v>0.371103022630163</v>
+        <v>0.2619339045287638</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -1291,67 +1270,61 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>1788.4</v>
+        <v>919.4</v>
       </c>
       <c r="V7">
-        <v>0.2068518818385806</v>
+        <v>0.4838183444719255</v>
       </c>
       <c r="W7">
-        <v>0.1073947551793878</v>
+        <v>0.1138437957221487</v>
       </c>
       <c r="X7">
-        <v>0.04804183434785511</v>
+        <v>0.05064326200830487</v>
       </c>
       <c r="Y7">
-        <v>0.05935292083153271</v>
+        <v>0.06320053371384382</v>
       </c>
       <c r="Z7">
-        <v>0.1809555050037012</v>
+        <v>0.4378636614197343</v>
       </c>
       <c r="AA7">
-        <v>0.0003485177184136602</v>
+        <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.04536937859559069</v>
+        <v>0.03999700672819106</v>
       </c>
       <c r="AC7">
-        <v>-0.04502086087717703</v>
+        <v>-0.03999700672819106</v>
       </c>
       <c r="AD7">
-        <v>1412.7</v>
+        <v>1166.3</v>
       </c>
       <c r="AE7">
-        <v>3.682197604333675</v>
+        <v>0</v>
       </c>
       <c r="AF7">
-        <v>1416.382197604334</v>
+        <v>1166.3</v>
       </c>
       <c r="AG7">
-        <v>-372.0178023956664</v>
+        <v>246.9</v>
       </c>
       <c r="AH7">
-        <v>0.1407629249589175</v>
+        <v>0.3803234852931586</v>
       </c>
       <c r="AI7">
-        <v>0.1853592317331759</v>
+        <v>0.403382561477536</v>
       </c>
       <c r="AJ7">
-        <v>-0.04496345123798206</v>
+        <v>0.1149869597615499</v>
       </c>
       <c r="AK7">
-        <v>-0.06356147105573705</v>
+        <v>0.1252091891069527</v>
       </c>
       <c r="AL7">
         <v>0</v>
       </c>
       <c r="AM7">
         <v>0</v>
-      </c>
-      <c r="AN7">
-        <v>422.9640718562874</v>
-      </c>
-      <c r="AP7">
-        <v>-111.3825755675648</v>
       </c>
     </row>
     <row r="8">
@@ -1362,7 +1335,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>AMMB Holdings Berhad (KLSE:AMBANK)</t>
+          <t>RHB Bank Berhad (KLSE:RHBBANK)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1371,13 +1344,13 @@
         </is>
       </c>
       <c r="D8">
-        <v>-0.0201</v>
+        <v>0.0317</v>
       </c>
       <c r="E8">
-        <v>-0.0397</v>
+        <v>0.0545</v>
       </c>
       <c r="F8">
-        <v>0.077</v>
+        <v>0.027</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1386,91 +1359,91 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.009616971885927665</v>
+        <v>0.00165279375014164</v>
       </c>
       <c r="J8">
-        <v>0.00740001682084662</v>
+        <v>0.001233063000429039</v>
       </c>
       <c r="K8">
-        <v>363.1</v>
+        <v>532.9</v>
       </c>
       <c r="L8">
-        <v>0.3575930667717156</v>
+        <v>0.3268723547813286</v>
       </c>
       <c r="M8">
-        <v>263.4</v>
+        <v>299.1</v>
       </c>
       <c r="N8">
-        <v>0.09167159711829602</v>
+        <v>0.05500082749489712</v>
       </c>
       <c r="O8">
-        <v>0.7254199944918754</v>
+        <v>0.5612685306811785</v>
       </c>
       <c r="P8">
-        <v>144</v>
+        <v>299.1</v>
       </c>
       <c r="Q8">
-        <v>0.05011659067970626</v>
+        <v>0.05500082749489712</v>
       </c>
       <c r="R8">
-        <v>0.3965849628201597</v>
+        <v>0.5612685306811785</v>
       </c>
       <c r="S8">
-        <v>119.4</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>0.4533029612756264</v>
+        <v>0</v>
       </c>
       <c r="U8">
-        <v>954.3</v>
+        <v>2294.8</v>
       </c>
       <c r="V8">
-        <v>0.33212682281697</v>
+        <v>0.4219856199775657</v>
       </c>
       <c r="W8">
-        <v>0.0885005362191674</v>
+        <v>0.0864311664720384</v>
       </c>
       <c r="X8">
-        <v>0.06652085327237724</v>
+        <v>0.04689553536338782</v>
       </c>
       <c r="Y8">
-        <v>0.02197968294679016</v>
+        <v>0.03953563110865058</v>
       </c>
       <c r="Z8">
-        <v>0.198950790908432</v>
+        <v>0.2757878817706082</v>
       </c>
       <c r="AA8">
-        <v>0.001472239199243135</v>
+        <v>0.0003400638329780352</v>
       </c>
       <c r="AB8">
-        <v>0.04679677570034053</v>
+        <v>0.0406831587261198</v>
       </c>
       <c r="AC8">
-        <v>-0.0453245365010974</v>
+        <v>-0.04034309489314176</v>
       </c>
       <c r="AD8">
-        <v>3162.4</v>
+        <v>2380.3</v>
       </c>
       <c r="AE8">
-        <v>32.17463373514524</v>
+        <v>6.127251745720424</v>
       </c>
       <c r="AF8">
-        <v>3194.574633735145</v>
+        <v>2386.427251745721</v>
       </c>
       <c r="AG8">
-        <v>2240.274633735145</v>
+        <v>91.62725174572051</v>
       </c>
       <c r="AH8">
-        <v>0.5264734073401068</v>
+        <v>0.304993154853322</v>
       </c>
       <c r="AI8">
-        <v>0.411307608836587</v>
+        <v>0.2662880219299983</v>
       </c>
       <c r="AJ8">
-        <v>0.4381034392175802</v>
+        <v>0.0165699405367225</v>
       </c>
       <c r="AK8">
-        <v>0.3288440500367575</v>
+        <v>0.01374334441511822</v>
       </c>
       <c r="AL8">
         <v>0</v>
@@ -1479,10 +1452,10 @@
         <v>0</v>
       </c>
       <c r="AN8">
-        <v>195.2098765432099</v>
+        <v>607.219387755102</v>
       </c>
       <c r="AP8">
-        <v>138.288557637972</v>
+        <v>23.37429891472462</v>
       </c>
     </row>
     <row r="9">
@@ -1493,7 +1466,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CIMB Group Holdings Berhad (KLSE:CIMB)</t>
+          <t>AMMB Holdings Berhad (KLSE:AMBANK)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1502,13 +1475,13 @@
         </is>
       </c>
       <c r="D9">
-        <v>0.0382</v>
+        <v>-0.0287</v>
       </c>
       <c r="E9">
-        <v>0.0412</v>
+        <v>-0.0576</v>
       </c>
       <c r="F9">
-        <v>0.0416</v>
+        <v>0.016</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1517,103 +1490,97 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.007353044782931708</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.005515984908069081</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>1152.9</v>
+        <v>296.5</v>
       </c>
       <c r="L9">
-        <v>0.3005004431006621</v>
+        <v>0.3347634639268375</v>
       </c>
       <c r="M9">
-        <v>171.2</v>
+        <v>102.88</v>
       </c>
       <c r="N9">
-        <v>0.01371860826642306</v>
+        <v>0.03770984531925813</v>
       </c>
       <c r="O9">
-        <v>0.1484950993147714</v>
+        <v>0.3469814502529511</v>
       </c>
       <c r="P9">
-        <v>171.2</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="Q9">
-        <v>0.01371860826642306</v>
+        <v>0.03533465288468588</v>
       </c>
       <c r="R9">
-        <v>0.1484950993147714</v>
+        <v>0.3251264755480607</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>6.480000000000004</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>0.06298600311041994</v>
       </c>
       <c r="U9">
-        <v>7214.3</v>
+        <v>1792.6</v>
       </c>
       <c r="V9">
-        <v>0.5780967033671491</v>
+        <v>0.6570632651565135</v>
       </c>
       <c r="W9">
-        <v>0.09542847210151227</v>
+        <v>0.06838257339883301</v>
       </c>
       <c r="X9">
-        <v>0.0706691783942288</v>
+        <v>0.05845678333157889</v>
       </c>
       <c r="Y9">
-        <v>0.02475929370728347</v>
+        <v>0.009925790067254123</v>
       </c>
       <c r="Z9">
-        <v>0.2393320728755148</v>
+        <v>0.1353453545232274</v>
       </c>
       <c r="AA9">
-        <v>0.001320152101998229</v>
+        <v>0</v>
       </c>
       <c r="AB9">
-        <v>0.04695720085128809</v>
+        <v>0.04074907337851462</v>
       </c>
       <c r="AC9">
-        <v>-0.04563704874928986</v>
+        <v>-0.04074907337851462</v>
       </c>
       <c r="AD9">
-        <v>16410.6</v>
+        <v>2669.3</v>
       </c>
       <c r="AE9">
-        <v>119.9465419290211</v>
+        <v>0</v>
       </c>
       <c r="AF9">
-        <v>16530.54654192902</v>
+        <v>2669.3</v>
       </c>
       <c r="AG9">
-        <v>9316.24654192902</v>
+        <v>876.7000000000003</v>
       </c>
       <c r="AH9">
-        <v>0.569823405845884</v>
+        <v>0.4945437702640111</v>
       </c>
       <c r="AI9">
-        <v>0.5468684609302733</v>
+        <v>0.3524060994125025</v>
       </c>
       <c r="AJ9">
-        <v>0.4274361177589774</v>
+        <v>0.2431967599656024</v>
       </c>
       <c r="AK9">
-        <v>0.4048192871451939</v>
+        <v>0.1516283574603505</v>
       </c>
       <c r="AL9">
         <v>0</v>
       </c>
       <c r="AM9">
         <v>0</v>
-      </c>
-      <c r="AN9">
-        <v>314.3793103448276</v>
-      </c>
-      <c r="AP9">
-        <v>178.4721559756517</v>
       </c>
     </row>
     <row r="10">
@@ -1624,7 +1591,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Public Bank Berhad (KLSE:PBBANK)</t>
+          <t>AFFIN Bank Berhad (KLSE:AFFIN)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1633,13 +1600,13 @@
         </is>
       </c>
       <c r="D10">
-        <v>0.0559</v>
+        <v>0.121</v>
       </c>
       <c r="E10">
-        <v>0.05139999999999999</v>
+        <v>-0.0341</v>
       </c>
       <c r="F10">
-        <v>0.0181</v>
+        <v>0.01</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1648,34 +1615,34 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.0005606583614064354</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.0004408691744408451</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>1316</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="L10">
-        <v>0.5130404272737905</v>
+        <v>0.1742</v>
       </c>
       <c r="M10">
-        <v>648.9</v>
+        <v>35.2</v>
       </c>
       <c r="N10">
-        <v>0.03520985376705825</v>
+        <v>0.03696702373450956</v>
       </c>
       <c r="O10">
-        <v>0.4930851063829787</v>
+        <v>0.4041331802525833</v>
       </c>
       <c r="P10">
-        <v>648.9</v>
+        <v>35.2</v>
       </c>
       <c r="Q10">
-        <v>0.03520985376705825</v>
+        <v>0.03696702373450956</v>
       </c>
       <c r="R10">
-        <v>0.4930851063829787</v>
+        <v>0.4041331802525833</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -1684,67 +1651,61 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <v>2055.2</v>
+        <v>1890.4</v>
       </c>
       <c r="V10">
-        <v>0.1115168615534876</v>
+        <v>1.985297206469229</v>
       </c>
       <c r="W10">
-        <v>0.1368737454106732</v>
+        <v>0.03914430812098332</v>
       </c>
       <c r="X10">
-        <v>0.04847901282115184</v>
+        <v>0.0592073955026865</v>
       </c>
       <c r="Y10">
-        <v>0.08839473258952139</v>
+        <v>-0.02006308738170318</v>
       </c>
       <c r="Z10">
-        <v>0.2509021052071657</v>
+        <v>0.6749460043196547</v>
       </c>
       <c r="AA10">
-        <v>0.0001106150039881532</v>
+        <v>0</v>
       </c>
       <c r="AB10">
-        <v>0.04580752139487723</v>
+        <v>0.04080697901651813</v>
       </c>
       <c r="AC10">
-        <v>-0.04569690639088907</v>
+        <v>-0.04080697901651813</v>
       </c>
       <c r="AD10">
-        <v>3387.7</v>
+        <v>965</v>
       </c>
       <c r="AE10">
-        <v>44.80927618578177</v>
+        <v>0</v>
       </c>
       <c r="AF10">
-        <v>3432.509276185782</v>
+        <v>965</v>
       </c>
       <c r="AG10">
-        <v>1377.309276185782</v>
+        <v>-925.4000000000001</v>
       </c>
       <c r="AH10">
-        <v>0.1570079507707832</v>
+        <v>0.5033382015439182</v>
       </c>
       <c r="AI10">
-        <v>0.2471705587437179</v>
+        <v>0.2938758108231568</v>
       </c>
       <c r="AJ10">
-        <v>0.06953716052800868</v>
+        <v>-34.52985074626872</v>
       </c>
       <c r="AK10">
-        <v>0.1164053580449674</v>
+        <v>-0.664178568865284</v>
       </c>
       <c r="AL10">
         <v>0</v>
       </c>
       <c r="AM10">
         <v>0</v>
-      </c>
-      <c r="AN10">
-        <v>325.7403846153846</v>
-      </c>
-      <c r="AP10">
-        <v>132.4335842486329</v>
       </c>
     </row>
     <row r="11">
@@ -1755,7 +1716,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Malayan Banking Berhad (KLSE:MAYBANK)</t>
+          <t>CIMB Group Holdings Berhad (KLSE:CIMB)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1764,13 +1725,13 @@
         </is>
       </c>
       <c r="D11">
-        <v>0.04769999999999999</v>
+        <v>-0.00239</v>
       </c>
       <c r="E11">
-        <v>0.0438</v>
+        <v>-0.0385</v>
       </c>
       <c r="F11">
-        <v>0.0366</v>
+        <v>-0.0335</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1779,103 +1740,97 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>-0.004111487593426891</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>-0.003168666449083004</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>1928.3</v>
+        <v>439.9</v>
       </c>
       <c r="L11">
-        <v>0.3611183939473389</v>
+        <v>0.1482242738729025</v>
       </c>
       <c r="M11">
-        <v>1497.7</v>
+        <v>672.5</v>
       </c>
       <c r="N11">
-        <v>0.06314613373808922</v>
+        <v>0.0633400205325271</v>
       </c>
       <c r="O11">
-        <v>0.776694497744127</v>
+        <v>1.528756535576267</v>
       </c>
       <c r="P11">
-        <v>1497.7</v>
+        <v>478.4</v>
       </c>
       <c r="Q11">
-        <v>0.06314613373808922</v>
+        <v>0.04505853653942151</v>
       </c>
       <c r="R11">
-        <v>0.776694497744127</v>
+        <v>1.087519890884292</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>194.1</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>0.2886245353159851</v>
       </c>
       <c r="U11">
-        <v>11569.3</v>
+        <v>9311.200000000001</v>
       </c>
       <c r="V11">
-        <v>0.4877856480310312</v>
+        <v>0.876983790605898</v>
       </c>
       <c r="W11">
-        <v>0.1095357384275433</v>
+        <v>0.03285017660983788</v>
       </c>
       <c r="X11">
-        <v>0.06083184747349321</v>
+        <v>0.07259850977269977</v>
       </c>
       <c r="Y11">
-        <v>0.04870389095405006</v>
+        <v>-0.03974833316286189</v>
       </c>
       <c r="Z11">
-        <v>0.2136110318264854</v>
+        <v>0.1432930656546636</v>
       </c>
       <c r="AA11">
-        <v>-0.0006768621097025861</v>
+        <v>0</v>
       </c>
       <c r="AB11">
-        <v>0.04760051414780749</v>
+        <v>0.041581609224828</v>
       </c>
       <c r="AC11">
-        <v>-0.04827737625751007</v>
+        <v>-0.041581609224828</v>
       </c>
       <c r="AD11">
-        <v>19259.1</v>
+        <v>17395.6</v>
       </c>
       <c r="AE11">
-        <v>188.7726072569046</v>
+        <v>0</v>
       </c>
       <c r="AF11">
-        <v>19447.8726072569</v>
+        <v>17395.6</v>
       </c>
       <c r="AG11">
-        <v>7878.572607256905</v>
+        <v>8084.399999999998</v>
       </c>
       <c r="AH11">
-        <v>0.4505381550884573</v>
+        <v>0.6209853317578687</v>
       </c>
       <c r="AI11">
-        <v>0.498179621694899</v>
+        <v>0.5622347697648036</v>
       </c>
       <c r="AJ11">
-        <v>0.2493489627874196</v>
+        <v>0.4322815572915831</v>
       </c>
       <c r="AK11">
-        <v>0.2868213328702588</v>
+        <v>0.3737776770894497</v>
       </c>
       <c r="AL11">
         <v>0</v>
       </c>
       <c r="AM11">
         <v>0</v>
-      </c>
-      <c r="AN11">
-        <v>1218.930379746835</v>
-      </c>
-      <c r="AP11">
-        <v>498.6438359023358</v>
       </c>
     </row>
     <row r="12">
@@ -1886,7 +1841,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BIMB Holdings Berhad (KLSE:BIMB)</t>
+          <t>Malayan Banking Berhad (KLSE:MAYBANK)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1895,13 +1850,13 @@
         </is>
       </c>
       <c r="D12">
-        <v>0.0776</v>
+        <v>0.0198</v>
       </c>
       <c r="E12">
-        <v>0.118</v>
+        <v>0.00769</v>
       </c>
       <c r="F12">
-        <v>0.068</v>
+        <v>0.01</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1910,34 +1865,34 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>-0.01459837950748927</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>-0.01125153366310513</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>183.3</v>
+        <v>1778.8</v>
       </c>
       <c r="L12">
-        <v>0.2551148225469729</v>
+        <v>0.3511944718657453</v>
       </c>
       <c r="M12">
-        <v>8.98</v>
+        <v>1731.1</v>
       </c>
       <c r="N12">
-        <v>0.00473703645091523</v>
+        <v>0.07315269478790747</v>
       </c>
       <c r="O12">
-        <v>0.04899072558647027</v>
+        <v>0.9731841691027658</v>
       </c>
       <c r="P12">
-        <v>8.98</v>
+        <v>1731.1</v>
       </c>
       <c r="Q12">
-        <v>0.00473703645091523</v>
+        <v>0.07315269478790747</v>
       </c>
       <c r="R12">
-        <v>0.04899072558647027</v>
+        <v>0.9731841691027658</v>
       </c>
       <c r="S12">
         <v>0</v>
@@ -1946,67 +1901,61 @@
         <v>0</v>
       </c>
       <c r="U12">
-        <v>1013.7</v>
+        <v>13388.7</v>
       </c>
       <c r="V12">
-        <v>0.5347365089412882</v>
+        <v>0.565778686792708</v>
       </c>
       <c r="W12">
-        <v>0.1476558724021266</v>
+        <v>0.09393648144823143</v>
       </c>
       <c r="X12">
-        <v>0.05805904338557664</v>
+        <v>0.0587434407539677</v>
       </c>
       <c r="Y12">
-        <v>0.08959682901654999</v>
+        <v>0.03519304069426372</v>
       </c>
       <c r="Z12">
-        <v>0.33103815414271</v>
+        <v>0.1902275970855554</v>
       </c>
       <c r="AA12">
-        <v>-0.003724686935108888</v>
+        <v>0</v>
       </c>
       <c r="AB12">
-        <v>0.046343358572763</v>
+        <v>0.04207073942782081</v>
       </c>
       <c r="AC12">
-        <v>-0.0500680455078719</v>
+        <v>-0.04207073942782081</v>
       </c>
       <c r="AD12">
-        <v>1211.1</v>
+        <v>23469.9</v>
       </c>
       <c r="AE12">
-        <v>73.64467838065519</v>
+        <v>0</v>
       </c>
       <c r="AF12">
-        <v>1284.744678380655</v>
+        <v>23469.9</v>
       </c>
       <c r="AG12">
-        <v>271.0446783806551</v>
+        <v>10081.2</v>
       </c>
       <c r="AH12">
-        <v>0.4039512735793888</v>
+        <v>0.4979388595517895</v>
       </c>
       <c r="AI12">
-        <v>0.4502434156563899</v>
+        <v>0.5319078052760403</v>
       </c>
       <c r="AJ12">
-        <v>0.1250930398422503</v>
+        <v>0.2987429397784587</v>
       </c>
       <c r="AK12">
-        <v>0.1473273338228807</v>
+        <v>0.3280007027749852</v>
       </c>
       <c r="AL12">
         <v>0</v>
       </c>
       <c r="AM12">
         <v>0</v>
-      </c>
-      <c r="AN12">
-        <v>285.6367924528302</v>
-      </c>
-      <c r="AP12">
-        <v>63.92563169355073</v>
       </c>
     </row>
   </sheetData>
